--- a/reports/RIA TGN-BCB.xlsx
+++ b/reports/RIA TGN-BCB.xlsx
@@ -5,34 +5,104 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="TGN-BCB" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>AUTORIDAD DE FISCALIZACIÓN Y CONTROL DE PENSIONES Y SEGUROS</t>
+  </si>
+  <si>
+    <t>DIRECCIÓN DE INVERSIONES</t>
+  </si>
+  <si>
+    <t>DETALLE DE CARTERA DE INVERSIÓN ADMISIBLE TOTAL MERCADO POR EMISOR TGN - BCB AL 30 DE JUNIO DE 2022</t>
+  </si>
+  <si>
+    <t>FECHA</t>
+  </si>
+  <si>
+    <t>INSTRUMENTO</t>
+  </si>
+  <si>
+    <t>SERIE</t>
+  </si>
+  <si>
+    <t>CANTIDAD</t>
+  </si>
+  <si>
+    <t>MONEDA</t>
+  </si>
+  <si>
+    <t>TOTALVALORADOUSD</t>
+  </si>
+  <si>
+    <t>TOTALVALORADOBS</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1">
+  <numFmts count="1">
+    <numFmt formatCode="#,##0.00; (#,##0.00); 0" numFmtId="164"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color rgb="FF0A0A0A"/>
       <name val="Arial"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFF4F4F4"/>
+      <name val="Arial"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF0A0A0A"/>
+      <name val="Arial"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF366092"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF95B3D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8EA9DB"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -40,12 +110,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="hair"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf applyFont="1" fontId="0"/>
+    <xf applyFont="1" fontId="1" applyFill="1" fillId="2" applyBorder="1" borderId="1" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyFont="1" fontId="2" applyFill="1" fillId="3" applyBorder="1" borderId="2" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyFont="1" fontId="3" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1" wrapText="1"/>
+    </xf>
+    <xf applyFont="1" fontId="0" applyFill="1" fillId="4"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -53,14 +147,136 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr descr="logo" id="2" name="logo" title="logo"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5876925" cy="2819400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="50" customWidth="1"/>
+    <col min="2" max="2" width="50" customWidth="1"/>
+    <col min="3" max="3" width="50" customWidth="1"/>
+    <col min="4" max="4" width="50" customWidth="1"/>
+    <col min="5" max="5" width="50" customWidth="1"/>
+    <col min="6" max="6" width="50" customWidth="1"/>
+    <col min="7" max="7" width="50" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A9:A9"/>
+    <mergeCell ref="B9:B9"/>
+    <mergeCell ref="C9:C9"/>
+    <mergeCell ref="D9:D9"/>
+    <mergeCell ref="E9:E9"/>
+    <mergeCell ref="F9:F9"/>
+    <mergeCell ref="G9:G9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/reports/RIA TGN-BCB.xlsx
+++ b/reports/RIA TGN-BCB.xlsx
@@ -31,16 +31,16 @@
     <t>SERIE</t>
   </si>
   <si>
-    <t>CANTIDAD</t>
+    <t>CANTIDAD DE VALORES</t>
   </si>
   <si>
     <t>MONEDA</t>
   </si>
   <si>
-    <t>TOTALVALORADOUSD</t>
-  </si>
-  <si>
-    <t>TOTALVALORADOBS</t>
+    <t>TOTAL VALORADO USD</t>
+  </si>
+  <si>
+    <t>TOTAL VALORADO EN BS</t>
   </si>
 </sst>
 </file>
@@ -198,13 +198,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="50" customWidth="1"/>
-    <col min="2" max="2" width="50" customWidth="1"/>
-    <col min="3" max="3" width="50" customWidth="1"/>
-    <col min="4" max="4" width="50" customWidth="1"/>
-    <col min="5" max="5" width="50" customWidth="1"/>
-    <col min="6" max="6" width="50" customWidth="1"/>
-    <col min="7" max="7" width="50" customWidth="1"/>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="28" customWidth="1"/>
+    <col min="7" max="7" width="30" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="1:7">
